--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H2">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I2">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J2">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2529583333333333</v>
+        <v>2.423038333333333</v>
       </c>
       <c r="N2">
-        <v>0.7588750000000001</v>
+        <v>7.269115</v>
       </c>
       <c r="O2">
-        <v>0.0001995854867641919</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="P2">
-        <v>0.000199585486764192</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="Q2">
-        <v>2.404541813194445</v>
+        <v>136.1027279035161</v>
       </c>
       <c r="R2">
-        <v>21.64087631875</v>
+        <v>1224.924551131645</v>
       </c>
       <c r="S2">
-        <v>2.788049527158873E-06</v>
+        <v>0.0001191665324531139</v>
       </c>
       <c r="T2">
-        <v>2.788049527158874E-06</v>
+        <v>0.0001191665324531138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H3">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I3">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J3">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.069411</v>
       </c>
       <c r="O3">
-        <v>1.825521755465568E-05</v>
+        <v>2.132067390877311E-05</v>
       </c>
       <c r="P3">
-        <v>1.825521755465568E-05</v>
+        <v>2.13206739087731E-05</v>
       </c>
       <c r="Q3">
-        <v>0.2199329952833333</v>
+        <v>1.299611637250333</v>
       </c>
       <c r="R3">
-        <v>1.97939695755</v>
+        <v>11.696504735253</v>
       </c>
       <c r="S3">
-        <v>2.550107800752753E-07</v>
+        <v>1.137892052072788E-06</v>
       </c>
       <c r="T3">
-        <v>2.550107800752753E-07</v>
+        <v>1.137892052072788E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H4">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I4">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J4">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>307.5605876666667</v>
+        <v>280.561096</v>
       </c>
       <c r="N4">
-        <v>922.681763</v>
+        <v>841.6832879999999</v>
       </c>
       <c r="O4">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="P4">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="Q4">
-        <v>2923.573552173239</v>
+        <v>15759.19372958067</v>
       </c>
       <c r="R4">
-        <v>26312.16196955915</v>
+        <v>141832.743566226</v>
       </c>
       <c r="S4">
-        <v>0.003389863222599592</v>
+        <v>0.01379816922069545</v>
       </c>
       <c r="T4">
-        <v>0.003389863222599593</v>
+        <v>0.01379816922069544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H5">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I5">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J5">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.007196999999999999</v>
+        <v>0.028388</v>
       </c>
       <c r="N5">
-        <v>0.021591</v>
+        <v>0.085164</v>
       </c>
       <c r="O5">
-        <v>5.678471743996927E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="P5">
-        <v>5.678471743996928E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="Q5">
-        <v>0.06841240294999999</v>
+        <v>1.594561747774667</v>
       </c>
       <c r="R5">
-        <v>0.61571162655</v>
+        <v>14.351055729972</v>
       </c>
       <c r="S5">
-        <v>7.932370593429381E-08</v>
+        <v>1.396139498389692E-06</v>
       </c>
       <c r="T5">
-        <v>7.932370593429385E-08</v>
+        <v>1.396139498389692E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H6">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I6">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J6">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>568.7975463333333</v>
+        <v>683.8555499999999</v>
       </c>
       <c r="N6">
-        <v>1706.392639</v>
+        <v>2051.56665</v>
       </c>
       <c r="O6">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="P6">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="Q6">
-        <v>5406.809356221662</v>
+        <v>38412.35384787254</v>
       </c>
       <c r="R6">
-        <v>48661.28420599495</v>
+        <v>345711.1846308529</v>
       </c>
       <c r="S6">
-        <v>0.006269157885437432</v>
+        <v>0.03363244133253512</v>
       </c>
       <c r="T6">
-        <v>0.006269157885437433</v>
+        <v>0.03363244133253512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H7">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I7">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J7">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>390.777049</v>
+        <v>118.2996293333333</v>
       </c>
       <c r="N7">
-        <v>1172.331147</v>
+        <v>354.898888</v>
       </c>
       <c r="O7">
-        <v>0.3083251953520915</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="P7">
-        <v>0.3083251953520916</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="Q7">
-        <v>3714.602881728484</v>
+        <v>6644.92263318498</v>
       </c>
       <c r="R7">
-        <v>33431.42593555636</v>
+        <v>59804.30369866482</v>
       </c>
       <c r="S7">
-        <v>0.004307056234645982</v>
+        <v>0.005818049357373768</v>
       </c>
       <c r="T7">
-        <v>0.004307056234645983</v>
+        <v>0.005818049357373766</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H8">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I8">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J8">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2529583333333333</v>
+        <v>2.423038333333333</v>
       </c>
       <c r="N8">
-        <v>0.7588750000000001</v>
+        <v>7.269115</v>
       </c>
       <c r="O8">
-        <v>0.0001995854867641919</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="P8">
-        <v>0.000199585486764192</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="Q8">
-        <v>78.5501474270139</v>
+        <v>752.4164782262138</v>
       </c>
       <c r="R8">
-        <v>706.9513268431251</v>
+        <v>6771.748304035925</v>
       </c>
       <c r="S8">
-        <v>9.107835022473621E-05</v>
+        <v>0.0006587881378422054</v>
       </c>
       <c r="T8">
-        <v>9.107835022473624E-05</v>
+        <v>0.0006587881378422053</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H9">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I9">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J9">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.069411</v>
       </c>
       <c r="O9">
-        <v>1.825521755465568E-05</v>
+        <v>2.132067390877311E-05</v>
       </c>
       <c r="P9">
-        <v>1.825521755465568E-05</v>
+        <v>2.13206739087731E-05</v>
       </c>
       <c r="Q9">
-        <v>7.184640794671668</v>
+        <v>7.184640794671667</v>
       </c>
       <c r="R9">
         <v>64.661767152045</v>
       </c>
       <c r="S9">
-        <v>8.330541087068575E-06</v>
+        <v>6.290606688127141E-06</v>
       </c>
       <c r="T9">
-        <v>8.330541087068576E-06</v>
+        <v>6.29060668812714E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H10">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I10">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J10">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>307.5605876666667</v>
+        <v>280.561096</v>
       </c>
       <c r="N10">
-        <v>922.681763</v>
+        <v>841.6832879999999</v>
       </c>
       <c r="O10">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="P10">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="Q10">
-        <v>95505.56878519796</v>
+        <v>87121.52378093069</v>
       </c>
       <c r="R10">
-        <v>859550.1190667816</v>
+        <v>784093.7140283763</v>
       </c>
       <c r="S10">
-        <v>0.110738043493976</v>
+        <v>0.07628039533759262</v>
       </c>
       <c r="T10">
-        <v>0.110738043493976</v>
+        <v>0.07628039533759262</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,43 +1104,43 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H11">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I11">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J11">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.007196999999999999</v>
+        <v>0.028388</v>
       </c>
       <c r="N11">
-        <v>0.021591</v>
+        <v>0.085164</v>
       </c>
       <c r="O11">
-        <v>5.678471743996927E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="P11">
-        <v>5.678471743996928E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="Q11">
-        <v>2.234855849905</v>
+        <v>8.815212986953332</v>
       </c>
       <c r="R11">
-        <v>20.113702649145</v>
+        <v>79.33691688258</v>
       </c>
       <c r="S11">
-        <v>2.591299831595822E-06</v>
+        <v>7.718275604553454E-06</v>
       </c>
       <c r="T11">
-        <v>2.591299831595822E-06</v>
+        <v>7.718275604553452E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H12">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I12">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J12">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>568.7975463333333</v>
+        <v>683.8555499999999</v>
       </c>
       <c r="N12">
-        <v>1706.392639</v>
+        <v>2051.56665</v>
       </c>
       <c r="O12">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="P12">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="Q12">
-        <v>176626.444884627</v>
+        <v>212354.9501747257</v>
       </c>
       <c r="R12">
-        <v>1589638.003961643</v>
+        <v>1911194.551572531</v>
       </c>
       <c r="S12">
-        <v>0.204797135754576</v>
+        <v>0.1859301679795506</v>
       </c>
       <c r="T12">
-        <v>0.204797135754576</v>
+        <v>0.1859301679795506</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H13">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I13">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J13">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>390.777049</v>
+        <v>118.2996293333333</v>
       </c>
       <c r="N13">
-        <v>1172.331147</v>
+        <v>354.898888</v>
       </c>
       <c r="O13">
-        <v>0.3083251953520915</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="P13">
-        <v>0.3083251953520916</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="Q13">
-        <v>121346.4462923806</v>
+        <v>36735.1144445176</v>
       </c>
       <c r="R13">
-        <v>1092118.016631425</v>
+        <v>330616.0300006584</v>
       </c>
       <c r="S13">
-        <v>0.140700361437434</v>
+        <v>0.03216391232602447</v>
       </c>
       <c r="T13">
-        <v>0.140700361437434</v>
+        <v>0.03216391232602447</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H14">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I14">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J14">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2529583333333333</v>
+        <v>2.423038333333333</v>
       </c>
       <c r="N14">
-        <v>0.7588750000000001</v>
+        <v>7.269115</v>
       </c>
       <c r="O14">
-        <v>0.0001995854867641919</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="P14">
-        <v>0.000199585486764192</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="Q14">
-        <v>26.44934812325</v>
+        <v>311.6675935951706</v>
       </c>
       <c r="R14">
-        <v>238.04413310925</v>
+        <v>2805.008342356535</v>
       </c>
       <c r="S14">
-        <v>3.066783539551798E-05</v>
+        <v>0.0002728846583668166</v>
       </c>
       <c r="T14">
-        <v>3.0667835395518E-05</v>
+        <v>0.0002728846583668166</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H15">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I15">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J15">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.069411</v>
       </c>
       <c r="O15">
-        <v>1.825521755465568E-05</v>
+        <v>2.132067390877311E-05</v>
       </c>
       <c r="P15">
-        <v>1.825521755465568E-05</v>
+        <v>2.13206739087731E-05</v>
       </c>
       <c r="Q15">
-        <v>2.419206987426</v>
+        <v>2.976037569777667</v>
       </c>
       <c r="R15">
-        <v>21.772862886834</v>
+        <v>26.784338127999</v>
       </c>
       <c r="S15">
-        <v>2.805053694795979E-06</v>
+        <v>2.605708813507437E-06</v>
       </c>
       <c r="T15">
-        <v>2.805053694795981E-06</v>
+        <v>2.605708813507436E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H16">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I16">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J16">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>307.5605876666667</v>
+        <v>280.561096</v>
       </c>
       <c r="N16">
-        <v>922.681763</v>
+        <v>841.6832879999999</v>
       </c>
       <c r="O16">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="P16">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="Q16">
-        <v>32158.56518736426</v>
+        <v>36087.66747261955</v>
       </c>
       <c r="R16">
-        <v>289427.0866862783</v>
+        <v>324789.007253576</v>
       </c>
       <c r="S16">
-        <v>0.03728763291731884</v>
+        <v>0.03159703161924648</v>
       </c>
       <c r="T16">
-        <v>0.03728763291731886</v>
+        <v>0.03159703161924649</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H17">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I17">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J17">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.007196999999999999</v>
+        <v>0.028388</v>
       </c>
       <c r="N17">
-        <v>0.021591</v>
+        <v>0.085164</v>
       </c>
       <c r="O17">
-        <v>5.678471743996927E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="P17">
-        <v>5.678471743996928E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="Q17">
-        <v>0.7525190253059999</v>
+        <v>3.651456737297333</v>
       </c>
       <c r="R17">
-        <v>6.772671227754</v>
+        <v>32.863110635676</v>
       </c>
       <c r="S17">
-        <v>8.725405818146977E-07</v>
+        <v>3.197080943849639E-06</v>
       </c>
       <c r="T17">
-        <v>8.725405818146981E-07</v>
+        <v>3.197080943849639E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H18">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I18">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J18">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>568.7975463333333</v>
+        <v>683.8555499999999</v>
       </c>
       <c r="N18">
-        <v>1706.392639</v>
+        <v>2051.56665</v>
       </c>
       <c r="O18">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="P18">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="Q18">
-        <v>59473.52718677287</v>
+        <v>87962.13031512163</v>
       </c>
       <c r="R18">
-        <v>535261.7446809559</v>
+        <v>791659.1728360947</v>
       </c>
       <c r="S18">
-        <v>0.06895914158850343</v>
+        <v>0.07701639943817154</v>
       </c>
       <c r="T18">
-        <v>0.06895914158850346</v>
+        <v>0.07701639943817154</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H19">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I19">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J19">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>390.777049</v>
+        <v>118.2996293333333</v>
       </c>
       <c r="N19">
-        <v>1172.331147</v>
+        <v>354.898888</v>
       </c>
       <c r="O19">
-        <v>0.3083251953520915</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="P19">
-        <v>0.3083251953520916</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="Q19">
-        <v>40859.6865395908</v>
+        <v>15216.49917391071</v>
       </c>
       <c r="R19">
-        <v>367737.1788563172</v>
+        <v>136948.4925651964</v>
       </c>
       <c r="S19">
-        <v>0.04737652267532175</v>
+        <v>0.01332300586889093</v>
       </c>
       <c r="T19">
-        <v>0.04737652267532178</v>
+        <v>0.01332300586889093</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H20">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I20">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J20">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2529583333333333</v>
+        <v>2.423038333333333</v>
       </c>
       <c r="N20">
-        <v>0.7588750000000001</v>
+        <v>7.269115</v>
       </c>
       <c r="O20">
-        <v>0.0001995854867641919</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="P20">
-        <v>0.000199585486764192</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="Q20">
-        <v>35.35709437613889</v>
+        <v>564.8260862090972</v>
       </c>
       <c r="R20">
-        <v>318.2138493852501</v>
+        <v>5083.434775881875</v>
       </c>
       <c r="S20">
-        <v>4.099630529033939E-05</v>
+        <v>0.0004945409042816314</v>
       </c>
       <c r="T20">
-        <v>4.099630529033941E-05</v>
+        <v>0.0004945409042816313</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H21">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I21">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J21">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.069411</v>
       </c>
       <c r="O21">
-        <v>1.825521755465568E-05</v>
+        <v>2.132067390877311E-05</v>
       </c>
       <c r="P21">
-        <v>1.825521755465568E-05</v>
+        <v>2.13206739087731E-05</v>
       </c>
       <c r="Q21">
-        <v>3.233959845484667</v>
+        <v>5.393386054541667</v>
       </c>
       <c r="R21">
-        <v>29.105638609362</v>
+        <v>48.540474490875</v>
       </c>
       <c r="S21">
-        <v>3.749753973325973E-06</v>
+        <v>4.722250054799286E-06</v>
       </c>
       <c r="T21">
-        <v>3.749753973325973E-06</v>
+        <v>4.722250054799285E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H22">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I22">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J22">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>307.5605876666667</v>
+        <v>280.561096</v>
       </c>
       <c r="N22">
-        <v>922.681763</v>
+        <v>841.6832879999999</v>
       </c>
       <c r="O22">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="P22">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="Q22">
-        <v>42989.09065858438</v>
+        <v>65400.62681476965</v>
       </c>
       <c r="R22">
-        <v>386901.8159272594</v>
+        <v>588605.6413329269</v>
       </c>
       <c r="S22">
-        <v>0.0498455519575379</v>
+        <v>0.05726237848297305</v>
       </c>
       <c r="T22">
-        <v>0.04984555195753792</v>
+        <v>0.05726237848297305</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H23">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I23">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J23">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.007196999999999999</v>
+        <v>0.028388</v>
       </c>
       <c r="N23">
-        <v>0.021591</v>
+        <v>0.085164</v>
       </c>
       <c r="O23">
-        <v>5.678471743996927E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="P23">
-        <v>5.678471743996928E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="Q23">
-        <v>1.005956217658</v>
+        <v>6.617428504833333</v>
       </c>
       <c r="R23">
-        <v>9.053605958922001</v>
+        <v>59.5568565435</v>
       </c>
       <c r="S23">
-        <v>1.16639924562506E-06</v>
+        <v>5.793976511891866E-06</v>
       </c>
       <c r="T23">
-        <v>1.166399245625061E-06</v>
+        <v>5.793976511891866E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H24">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I24">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J24">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>568.7975463333333</v>
+        <v>683.8555499999999</v>
       </c>
       <c r="N24">
-        <v>1706.392639</v>
+        <v>2051.56665</v>
       </c>
       <c r="O24">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="P24">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="Q24">
-        <v>79503.32476346131</v>
+        <v>159411.2022600562</v>
       </c>
       <c r="R24">
-        <v>715529.9228711517</v>
+        <v>1434700.820340506</v>
       </c>
       <c r="S24">
-        <v>0.09218355272427198</v>
+        <v>0.1395745735601977</v>
       </c>
       <c r="T24">
-        <v>0.09218355272427199</v>
+        <v>0.1395745735601977</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H25">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I25">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J25">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>390.777049</v>
+        <v>118.2996293333333</v>
       </c>
       <c r="N25">
-        <v>1172.331147</v>
+        <v>354.898888</v>
       </c>
       <c r="O25">
-        <v>0.3083251953520915</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="P25">
-        <v>0.3083251953520916</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="Q25">
-        <v>54620.62000272266</v>
+        <v>27576.41747434189</v>
       </c>
       <c r="R25">
-        <v>491585.5800245039</v>
+        <v>248187.757269077</v>
       </c>
       <c r="S25">
-        <v>0.06333222942353582</v>
+        <v>0.02414489480494742</v>
       </c>
       <c r="T25">
-        <v>0.06333222942353585</v>
+        <v>0.02414489480494742</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H26">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I26">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J26">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2529583333333333</v>
+        <v>2.423038333333333</v>
       </c>
       <c r="N26">
-        <v>0.7588750000000001</v>
+        <v>7.269115</v>
       </c>
       <c r="O26">
-        <v>0.0001995854867641919</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="P26">
-        <v>0.000199585486764192</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="Q26">
-        <v>9.525093932250002</v>
+        <v>89.78346593855332</v>
       </c>
       <c r="R26">
-        <v>85.72584539025002</v>
+        <v>808.0511934469799</v>
       </c>
       <c r="S26">
-        <v>1.104428024009827E-05</v>
+        <v>7.861109378428009E-05</v>
       </c>
       <c r="T26">
-        <v>1.104428024009827E-05</v>
+        <v>7.861109378428006E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H27">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I27">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J27">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.069411</v>
       </c>
       <c r="O27">
-        <v>1.825521755465568E-05</v>
+        <v>2.132067390877311E-05</v>
       </c>
       <c r="P27">
-        <v>1.825521755465568E-05</v>
+        <v>2.13206739087731E-05</v>
       </c>
       <c r="Q27">
-        <v>0.8712189687780001</v>
+        <v>0.857320341508</v>
       </c>
       <c r="R27">
-        <v>7.840970719002</v>
+        <v>7.715883073572</v>
       </c>
       <c r="S27">
-        <v>1.010172341618133E-06</v>
+        <v>7.506380942742913E-07</v>
       </c>
       <c r="T27">
-        <v>1.010172341618133E-06</v>
+        <v>7.506380942742912E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H28">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I28">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J28">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>307.5605876666667</v>
+        <v>280.561096</v>
       </c>
       <c r="N28">
-        <v>922.681763</v>
+        <v>841.6832879999999</v>
       </c>
       <c r="O28">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="P28">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="Q28">
-        <v>11581.13057110727</v>
+        <v>10395.93441831606</v>
       </c>
       <c r="R28">
-        <v>104230.1751399655</v>
+        <v>93563.40976484456</v>
       </c>
       <c r="S28">
-        <v>0.01342824043880736</v>
+        <v>0.009102297031981088</v>
       </c>
       <c r="T28">
-        <v>0.01342824043880736</v>
+        <v>0.009102297031981088</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H29">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I29">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J29">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.007196999999999999</v>
+        <v>0.028388</v>
       </c>
       <c r="N29">
-        <v>0.021591</v>
+        <v>0.085164</v>
       </c>
       <c r="O29">
-        <v>5.678471743996927E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="P29">
-        <v>5.678471743996928E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="Q29">
-        <v>0.271001552418</v>
+        <v>1.051891336592</v>
       </c>
       <c r="R29">
-        <v>2.439013971762</v>
+        <v>9.467022029328</v>
       </c>
       <c r="S29">
-        <v>3.142244172807929E-07</v>
+        <v>9.209972866084012E-07</v>
       </c>
       <c r="T29">
-        <v>3.142244172807929E-07</v>
+        <v>9.209972866084011E-07</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H30">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I30">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J30">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>568.7975463333333</v>
+        <v>683.8555499999999</v>
       </c>
       <c r="N30">
-        <v>1706.392639</v>
+        <v>2051.56665</v>
       </c>
       <c r="O30">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="P30">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="Q30">
-        <v>21417.95443488712</v>
+        <v>25339.64099356619</v>
       </c>
       <c r="R30">
-        <v>192761.5899139841</v>
+        <v>228056.7689420958</v>
       </c>
       <c r="S30">
-        <v>0.02483396936881151</v>
+        <v>0.02218645575532252</v>
       </c>
       <c r="T30">
-        <v>0.02483396936881151</v>
+        <v>0.02218645575532252</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H31">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I31">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J31">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>390.777049</v>
+        <v>118.2996293333333</v>
       </c>
       <c r="N31">
-        <v>1172.331147</v>
+        <v>354.898888</v>
       </c>
       <c r="O31">
-        <v>0.3083251953520915</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="P31">
-        <v>0.3083251953520916</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="Q31">
-        <v>14714.62928002291</v>
+        <v>4383.484402486197</v>
       </c>
       <c r="R31">
-        <v>132431.6635202062</v>
+        <v>39451.35962237578</v>
       </c>
       <c r="S31">
-        <v>0.01706151042222216</v>
+        <v>0.003838017388431014</v>
       </c>
       <c r="T31">
-        <v>0.01706151042222216</v>
+        <v>0.003838017388431013</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H32">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I32">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J32">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.2529583333333333</v>
+        <v>2.423038333333333</v>
       </c>
       <c r="N32">
-        <v>0.7588750000000001</v>
+        <v>7.269115</v>
       </c>
       <c r="O32">
-        <v>0.0001995854867641919</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="P32">
-        <v>0.000199585486764192</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="Q32">
-        <v>19.84545404056944</v>
+        <v>695.3593280440177</v>
       </c>
       <c r="R32">
-        <v>178.609086365125</v>
+        <v>6258.23395239616</v>
       </c>
       <c r="S32">
-        <v>2.30106660863412E-05</v>
+        <v>0.0006088309999978492</v>
       </c>
       <c r="T32">
-        <v>2.301066608634121E-05</v>
+        <v>0.0006088309999978491</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H33">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I33">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J33">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.069411</v>
       </c>
       <c r="O33">
-        <v>1.825521755465568E-05</v>
+        <v>2.132067390877311E-05</v>
       </c>
       <c r="P33">
-        <v>1.825521755465568E-05</v>
+        <v>2.13206739087731E-05</v>
       </c>
       <c r="Q33">
-        <v>1.815177480362333</v>
+        <v>6.639816032469333</v>
       </c>
       <c r="R33">
-        <v>16.336597323261</v>
+        <v>59.758344292224</v>
       </c>
       <c r="S33">
-        <v>2.104685677771739E-06</v>
+        <v>5.813578205992161E-06</v>
       </c>
       <c r="T33">
-        <v>2.10468567777174E-06</v>
+        <v>5.81357820599216E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H34">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I34">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J34">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>307.5605876666667</v>
+        <v>280.561096</v>
       </c>
       <c r="N34">
-        <v>922.681763</v>
+        <v>841.6832879999999</v>
       </c>
       <c r="O34">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="P34">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="Q34">
-        <v>24129.18928899764</v>
+        <v>80514.93552785441</v>
       </c>
       <c r="R34">
-        <v>217162.7036009788</v>
+        <v>724634.4197506896</v>
       </c>
       <c r="S34">
-        <v>0.02797762734620274</v>
+        <v>0.07049591015061911</v>
       </c>
       <c r="T34">
-        <v>0.02797762734620275</v>
+        <v>0.07049591015061911</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H35">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I35">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J35">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M35">
-        <v>0.007196999999999999</v>
+        <v>0.028388</v>
       </c>
       <c r="N35">
-        <v>0.021591</v>
+        <v>0.085164</v>
       </c>
       <c r="O35">
-        <v>5.678471743996927E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="P35">
-        <v>5.678471743996928E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="Q35">
-        <v>0.5646294820489999</v>
+        <v>8.146738882730666</v>
       </c>
       <c r="R35">
-        <v>5.081665338441</v>
+        <v>73.32064994457599</v>
       </c>
       <c r="S35">
-        <v>6.546839617462595E-07</v>
+        <v>7.132984315672103E-06</v>
       </c>
       <c r="T35">
-        <v>6.546839617462599E-07</v>
+        <v>7.132984315672102E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H36">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I36">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J36">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>568.7975463333333</v>
+        <v>683.8555499999999</v>
       </c>
       <c r="N36">
-        <v>1706.392639</v>
+        <v>2051.56665</v>
       </c>
       <c r="O36">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="P36">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="Q36">
-        <v>44624.13005098403</v>
+        <v>196251.6767421504</v>
       </c>
       <c r="R36">
-        <v>401617.1704588562</v>
+        <v>1766265.090679353</v>
       </c>
       <c r="S36">
-        <v>0.05174136877380274</v>
+        <v>0.1718307352520543</v>
       </c>
       <c r="T36">
-        <v>0.05174136877380275</v>
+        <v>0.1718307352520543</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H37">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I37">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J37">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>390.777049</v>
+        <v>118.2996293333333</v>
       </c>
       <c r="N37">
-        <v>1172.331147</v>
+        <v>354.898888</v>
       </c>
       <c r="O37">
-        <v>0.3083251953520915</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="P37">
-        <v>0.3083251953520916</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="Q37">
-        <v>30657.80780512806</v>
+        <v>33949.4219424578</v>
       </c>
       <c r="R37">
-        <v>275920.2702461526</v>
+        <v>305544.7974821202</v>
       </c>
       <c r="S37">
-        <v>0.03554751515893181</v>
+        <v>0.02972486263859695</v>
       </c>
       <c r="T37">
-        <v>0.03554751515893182</v>
+        <v>0.02972486263859694</v>
       </c>
     </row>
   </sheetData>
